--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.022420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.022420.xlsx_with_dialog_acts.xlsx
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2233,12 +2233,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2317,12 +2317,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2485,12 +2485,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2571,12 +2571,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2655,12 +2655,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3201,12 +3201,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3663,12 +3663,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4167,12 +4167,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4545,12 +4545,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4587,12 +4587,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4629,12 +4629,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4923,12 +4923,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4965,12 +4965,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5217,12 +5217,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5427,12 +5427,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5469,12 +5469,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5763,12 +5763,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6183,12 +6183,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6813,12 +6813,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6855,12 +6855,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6897,12 +6897,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7359,12 +7359,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7695,12 +7695,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8077,12 +8077,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8165,12 +8165,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9303,12 +9303,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10351,12 +10351,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10603,12 +10603,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11275,12 +11275,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11359,12 +11359,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11401,12 +11401,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11569,12 +11569,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11695,12 +11695,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11905,12 +11905,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12115,12 +12115,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13127,12 +13127,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13295,12 +13295,12 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13337,12 +13337,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13589,12 +13589,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13883,12 +13883,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14429,12 +14429,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15609,12 +15609,12 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15781,12 +15781,12 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16117,12 +16117,12 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16159,12 +16159,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16493,12 +16493,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16665,12 +16665,12 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16747,12 +16747,12 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16873,12 +16873,12 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16915,12 +16915,12 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17419,12 +17419,12 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17969,12 +17969,12 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18011,12 +18011,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18305,12 +18305,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18431,12 +18431,12 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18599,12 +18599,12 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18767,12 +18767,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19565,12 +19565,12 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19607,12 +19607,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20529,12 +20529,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20697,12 +20697,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21495,12 +21495,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21705,12 +21705,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21789,12 +21789,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21915,12 +21915,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22799,12 +22799,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23303,12 +23303,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23387,12 +23387,12 @@
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23471,12 +23471,12 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23597,12 +23597,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23723,12 +23723,12 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24147,12 +24147,12 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24231,12 +24231,12 @@
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24739,12 +24739,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25117,12 +25117,12 @@
       <c r="H587" t="inlineStr"/>
       <c r="I587" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25663,12 +25663,12 @@
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25919,12 +25919,12 @@
       <c r="H606" t="inlineStr"/>
       <c r="I606" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26129,12 +26129,12 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26297,12 +26297,12 @@
       <c r="H615" t="inlineStr"/>
       <c r="I615" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26339,12 +26339,12 @@
       <c r="H616" t="inlineStr"/>
       <c r="I616" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26637,12 +26637,12 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26679,12 +26679,12 @@
       <c r="H624" t="inlineStr"/>
       <c r="I624" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26977,12 +26977,12 @@
       <c r="H631" t="inlineStr"/>
       <c r="I631" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27019,12 +27019,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27355,12 +27355,12 @@
       <c r="H640" t="inlineStr"/>
       <c r="I640" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27607,12 +27607,12 @@
       <c r="H646" t="inlineStr"/>
       <c r="I646" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27985,12 +27985,12 @@
       <c r="H655" t="inlineStr"/>
       <c r="I655" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28069,12 +28069,12 @@
       <c r="H657" t="inlineStr"/>
       <c r="I657" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28577,12 +28577,12 @@
       <c r="H669" t="inlineStr"/>
       <c r="I669" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28745,12 +28745,12 @@
       <c r="H673" t="inlineStr"/>
       <c r="I673" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28787,12 +28787,12 @@
       <c r="H674" t="inlineStr"/>
       <c r="I674" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28869,12 +28869,12 @@
       <c r="H676" t="inlineStr"/>
       <c r="I676" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29205,12 +29205,12 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29247,12 +29247,12 @@
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
